--- a/Data/SalesTrend/SalesTrend_CCF.xlsx
+++ b/Data/SalesTrend/SalesTrend_CCF.xlsx
@@ -564,31 +564,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>91.81</v>
+        <v>91.8</v>
       </c>
       <c r="C2">
-        <v>110.73</v>
+        <v>111.65</v>
       </c>
       <c r="D2">
-        <v>96.70999999999999</v>
+        <v>97.64</v>
       </c>
       <c r="E2">
-        <v>32.77</v>
+        <v>32.09</v>
       </c>
       <c r="F2">
-        <v>88.39</v>
+        <v>91.31999999999999</v>
       </c>
       <c r="G2">
-        <v>66.77</v>
+        <v>68.91</v>
       </c>
       <c r="H2">
-        <v>100.83</v>
+        <v>101.5</v>
       </c>
       <c r="I2">
-        <v>45.21</v>
+        <v>45.25</v>
       </c>
       <c r="J2">
-        <v>110.02</v>
+        <v>111.51</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -596,31 +596,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>76.87</v>
+        <v>75.23</v>
       </c>
       <c r="C3">
-        <v>125.72</v>
+        <v>123.92</v>
       </c>
       <c r="D3">
-        <v>87.94</v>
+        <v>87.25</v>
       </c>
       <c r="E3">
-        <v>20.15</v>
+        <v>19.31</v>
       </c>
       <c r="F3">
-        <v>90.92</v>
+        <v>92.41</v>
       </c>
       <c r="G3">
-        <v>68.37</v>
+        <v>69.64</v>
       </c>
       <c r="H3">
-        <v>109.15</v>
+        <v>109.61</v>
       </c>
       <c r="I3">
-        <v>61.06</v>
+        <v>59.08</v>
       </c>
       <c r="J3">
-        <v>121.68</v>
+        <v>121.9</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -628,31 +628,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>56.15</v>
+        <v>53.81</v>
       </c>
       <c r="C4">
-        <v>115.94</v>
+        <v>111.11</v>
       </c>
       <c r="D4">
-        <v>71.94</v>
+        <v>68.94</v>
       </c>
       <c r="E4">
-        <v>48.27</v>
+        <v>46.26</v>
       </c>
       <c r="F4">
-        <v>79.5</v>
+        <v>76.19</v>
       </c>
       <c r="G4">
-        <v>117</v>
+        <v>112.12</v>
       </c>
       <c r="H4">
-        <v>88.25</v>
+        <v>84.58</v>
       </c>
       <c r="I4">
-        <v>39.87</v>
+        <v>38.21</v>
       </c>
       <c r="J4">
-        <v>96.09999999999999</v>
+        <v>92.09999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -660,31 +660,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>114.84</v>
+        <v>112.9</v>
       </c>
       <c r="C5">
-        <v>240.53</v>
+        <v>251.49</v>
       </c>
       <c r="D5">
-        <v>128.44</v>
+        <v>123.09</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>123.67</v>
+        <v>118.52</v>
       </c>
       <c r="G5">
-        <v>116.87</v>
+        <v>112</v>
       </c>
       <c r="H5">
-        <v>125.2</v>
+        <v>141.31</v>
       </c>
       <c r="I5">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J5">
-        <v>161.52</v>
+        <v>156.32</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -692,31 +692,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>80.48999999999999</v>
+        <v>80.95999999999999</v>
       </c>
       <c r="C6">
-        <v>132.09</v>
+        <v>129.48</v>
       </c>
       <c r="D6">
-        <v>87.34</v>
+        <v>87.69</v>
       </c>
       <c r="E6">
-        <v>14.42</v>
+        <v>13.82</v>
       </c>
       <c r="F6">
-        <v>102.84</v>
+        <v>115.94</v>
       </c>
       <c r="G6">
-        <v>85.02</v>
+        <v>92.59</v>
       </c>
       <c r="H6">
-        <v>105.07</v>
+        <v>105.9</v>
       </c>
       <c r="I6">
-        <v>59.35</v>
+        <v>57.61</v>
       </c>
       <c r="J6">
-        <v>111.3</v>
+        <v>113.33</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -724,31 +724,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>25.04</v>
+        <v>26.22</v>
       </c>
       <c r="C7">
-        <v>39.93</v>
+        <v>39.15</v>
       </c>
       <c r="D7">
-        <v>59.11</v>
+        <v>59.54</v>
       </c>
       <c r="E7">
-        <v>21.52</v>
+        <v>20.63</v>
       </c>
       <c r="F7">
-        <v>25.3</v>
+        <v>24.24</v>
       </c>
       <c r="G7">
-        <v>33.39</v>
+        <v>32</v>
       </c>
       <c r="H7">
-        <v>104.35</v>
+        <v>101.53</v>
       </c>
       <c r="I7">
-        <v>18.77</v>
+        <v>17.98</v>
       </c>
       <c r="J7">
-        <v>59.2</v>
+        <v>59.57</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -756,31 +756,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>83.7</v>
+        <v>80.20999999999999</v>
       </c>
       <c r="C8">
-        <v>91.81999999999999</v>
+        <v>88</v>
       </c>
       <c r="D8">
-        <v>95.42</v>
+        <v>91.45</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>139.13</v>
+        <v>133.33</v>
       </c>
       <c r="G8">
-        <v>71.26000000000001</v>
+        <v>68.29000000000001</v>
       </c>
       <c r="H8">
-        <v>104.95</v>
+        <v>100.58</v>
       </c>
       <c r="I8">
-        <v>49.36</v>
+        <v>47.3</v>
       </c>
       <c r="J8">
-        <v>120.94</v>
+        <v>115.9</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -788,31 +788,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>94.06</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="C9">
-        <v>226.9</v>
+        <v>217.44</v>
       </c>
       <c r="D9">
-        <v>93.59</v>
+        <v>92</v>
       </c>
       <c r="E9">
-        <v>64.36</v>
+        <v>61.68</v>
       </c>
       <c r="F9">
-        <v>150.72</v>
+        <v>144.44</v>
       </c>
       <c r="G9">
-        <v>100.17</v>
+        <v>96</v>
       </c>
       <c r="H9">
-        <v>130.57</v>
+        <v>127.23</v>
       </c>
       <c r="I9">
-        <v>138.64</v>
+        <v>133.77</v>
       </c>
       <c r="J9">
-        <v>165.22</v>
+        <v>158.33</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -820,31 +820,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>95.23999999999999</v>
+        <v>92.8</v>
       </c>
       <c r="C10">
-        <v>76.91</v>
+        <v>75.04000000000001</v>
       </c>
       <c r="D10">
-        <v>72.81</v>
+        <v>84.34999999999999</v>
       </c>
       <c r="E10">
-        <v>18.66</v>
+        <v>17.89</v>
       </c>
       <c r="F10">
-        <v>24.55</v>
+        <v>31.37</v>
       </c>
       <c r="G10">
-        <v>26.36</v>
+        <v>33.68</v>
       </c>
       <c r="H10">
-        <v>114.1</v>
+        <v>116.51</v>
       </c>
       <c r="I10">
-        <v>40.96</v>
+        <v>42.05</v>
       </c>
       <c r="J10">
-        <v>117.24</v>
+        <v>139.33</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -852,31 +852,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>100.03</v>
+        <v>100.29</v>
       </c>
       <c r="C11">
-        <v>89.45999999999999</v>
+        <v>94.06</v>
       </c>
       <c r="D11">
-        <v>106.63</v>
+        <v>109.09</v>
       </c>
       <c r="E11">
-        <v>47.16</v>
+        <v>46.44</v>
       </c>
       <c r="F11">
-        <v>88.43000000000001</v>
+        <v>88.14</v>
       </c>
       <c r="G11">
-        <v>59.12</v>
+        <v>58.12</v>
       </c>
       <c r="H11">
-        <v>85.29000000000001</v>
+        <v>88.06999999999999</v>
       </c>
       <c r="I11">
-        <v>47.53</v>
+        <v>48.91</v>
       </c>
       <c r="J11">
-        <v>108.05</v>
+        <v>115.65</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -884,31 +884,31 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>148.17</v>
+        <v>142.66</v>
       </c>
       <c r="C12">
-        <v>90.27</v>
+        <v>101.32</v>
       </c>
       <c r="D12">
-        <v>114.52</v>
+        <v>125.79</v>
       </c>
       <c r="E12">
-        <v>35.63</v>
+        <v>34.15</v>
       </c>
       <c r="F12">
-        <v>126.48</v>
+        <v>121.21</v>
       </c>
       <c r="G12">
-        <v>38.38</v>
+        <v>36.78</v>
       </c>
       <c r="H12">
-        <v>97.77</v>
+        <v>95.08</v>
       </c>
       <c r="I12">
-        <v>53.57</v>
+        <v>55.22</v>
       </c>
       <c r="J12">
-        <v>123.28</v>
+        <v>129.96</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -916,31 +916,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>122.61</v>
+        <v>119.55</v>
       </c>
       <c r="C13">
-        <v>96.08</v>
+        <v>92.06999999999999</v>
       </c>
       <c r="D13">
-        <v>104.94</v>
+        <v>101.69</v>
       </c>
       <c r="E13">
-        <v>200.97</v>
+        <v>192.59</v>
       </c>
       <c r="F13">
-        <v>104.35</v>
+        <v>100</v>
       </c>
       <c r="G13">
-        <v>53.64</v>
+        <v>51.41</v>
       </c>
       <c r="H13">
-        <v>91.3</v>
+        <v>95.29000000000001</v>
       </c>
       <c r="I13">
-        <v>41.89</v>
+        <v>40.42</v>
       </c>
       <c r="J13">
-        <v>106.8</v>
+        <v>105.16</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -948,31 +948,31 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>84.15000000000001</v>
+        <v>89.66</v>
       </c>
       <c r="C14">
-        <v>67.94</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="D14">
-        <v>100.68</v>
+        <v>97.72</v>
       </c>
       <c r="E14">
-        <v>33.55</v>
+        <v>36.47</v>
       </c>
       <c r="F14">
-        <v>53.86</v>
+        <v>60.22</v>
       </c>
       <c r="G14">
-        <v>47.36</v>
+        <v>53.9</v>
       </c>
       <c r="H14">
-        <v>65.93000000000001</v>
+        <v>75.02</v>
       </c>
       <c r="I14">
-        <v>17.43</v>
+        <v>17.82</v>
       </c>
       <c r="J14">
-        <v>85.14</v>
+        <v>87.56</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -980,31 +980,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>105.79</v>
+        <v>108.21</v>
       </c>
       <c r="C15">
-        <v>130.13</v>
+        <v>143.69</v>
       </c>
       <c r="D15">
-        <v>107.62</v>
+        <v>108.37</v>
       </c>
       <c r="E15">
-        <v>23.75</v>
+        <v>22.76</v>
       </c>
       <c r="F15">
-        <v>27.83</v>
+        <v>26.67</v>
       </c>
       <c r="G15">
-        <v>145.45</v>
+        <v>139.39</v>
       </c>
       <c r="H15">
-        <v>88.42</v>
+        <v>92.33</v>
       </c>
       <c r="I15">
-        <v>52.16</v>
+        <v>49.52</v>
       </c>
       <c r="J15">
-        <v>125.22</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1012,31 +1012,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>35.94</v>
+        <v>36.32</v>
       </c>
       <c r="C16">
-        <v>71.83</v>
+        <v>95.93000000000001</v>
       </c>
       <c r="D16">
-        <v>118.13</v>
+        <v>143.7</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>101.19</v>
+        <v>109.09</v>
       </c>
       <c r="G16">
-        <v>67.17</v>
+        <v>64.37</v>
       </c>
       <c r="H16">
-        <v>82.63</v>
+        <v>83.27</v>
       </c>
       <c r="I16">
-        <v>101.32</v>
+        <v>122.52</v>
       </c>
       <c r="J16">
-        <v>109.84</v>
+        <v>168.42</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1044,31 +1044,31 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>70.79000000000001</v>
+        <v>71.48999999999999</v>
       </c>
       <c r="C17">
-        <v>99.63</v>
+        <v>97.16</v>
       </c>
       <c r="D17">
-        <v>100.01</v>
+        <v>95.84</v>
       </c>
       <c r="E17">
-        <v>21.52</v>
+        <v>20.63</v>
       </c>
       <c r="F17">
-        <v>139.13</v>
+        <v>133.33</v>
       </c>
       <c r="G17">
-        <v>61.38</v>
+        <v>58.82</v>
       </c>
       <c r="H17">
-        <v>93.45999999999999</v>
+        <v>89.56999999999999</v>
       </c>
       <c r="I17">
-        <v>56.02</v>
+        <v>53.69</v>
       </c>
       <c r="J17">
-        <v>111.76</v>
+        <v>107.1</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1076,31 +1076,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>110.7</v>
+        <v>113.77</v>
       </c>
       <c r="C18">
-        <v>118.64</v>
+        <v>121.43</v>
       </c>
       <c r="D18">
-        <v>93.29000000000001</v>
+        <v>98.81999999999999</v>
       </c>
       <c r="E18">
-        <v>54.03</v>
+        <v>55.07</v>
       </c>
       <c r="F18">
-        <v>80.89</v>
+        <v>93.02</v>
       </c>
       <c r="G18">
-        <v>81.41</v>
+        <v>87.23</v>
       </c>
       <c r="H18">
-        <v>108.32</v>
+        <v>112.46</v>
       </c>
       <c r="I18">
-        <v>32.3</v>
+        <v>34.62</v>
       </c>
       <c r="J18">
-        <v>107.92</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1108,31 +1108,31 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>115.38</v>
+        <v>111.87</v>
       </c>
       <c r="C19">
-        <v>95.01000000000001</v>
+        <v>92.34999999999999</v>
       </c>
       <c r="D19">
-        <v>78.8</v>
+        <v>76.8</v>
       </c>
       <c r="E19">
-        <v>83.39</v>
+        <v>79.92</v>
       </c>
       <c r="F19">
-        <v>88.54000000000001</v>
+        <v>84.84999999999999</v>
       </c>
       <c r="G19">
-        <v>106.67</v>
+        <v>102.22</v>
       </c>
       <c r="H19">
-        <v>120.94</v>
+        <v>116.54</v>
       </c>
       <c r="I19">
-        <v>32.41</v>
+        <v>31.06</v>
       </c>
       <c r="J19">
-        <v>87.69</v>
+        <v>87.39</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1140,31 +1140,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>104.35</v>
+        <v>102.77</v>
       </c>
       <c r="C20">
-        <v>114.17</v>
+        <v>109.42</v>
       </c>
       <c r="D20">
-        <v>106.65</v>
+        <v>103.75</v>
       </c>
       <c r="E20">
-        <v>58.32</v>
+        <v>60.68</v>
       </c>
       <c r="F20">
-        <v>41.74</v>
+        <v>66.67</v>
       </c>
       <c r="G20">
-        <v>89.44</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="H20">
-        <v>112.66</v>
+        <v>107.97</v>
       </c>
       <c r="I20">
-        <v>33.43</v>
+        <v>32.03</v>
       </c>
       <c r="J20">
-        <v>111.05</v>
+        <v>107.65</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1172,31 +1172,31 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>79.56</v>
+        <v>76.25</v>
       </c>
       <c r="C21">
-        <v>106.44</v>
+        <v>102.01</v>
       </c>
       <c r="D21">
-        <v>108.29</v>
+        <v>103.78</v>
       </c>
       <c r="E21">
-        <v>44.99</v>
+        <v>43.11</v>
       </c>
       <c r="F21">
-        <v>125.22</v>
+        <v>120</v>
       </c>
       <c r="G21">
-        <v>50.59</v>
+        <v>48.48</v>
       </c>
       <c r="H21">
-        <v>116.3</v>
+        <v>111.45</v>
       </c>
       <c r="I21">
-        <v>32.54</v>
+        <v>31.19</v>
       </c>
       <c r="J21">
-        <v>134.64</v>
+        <v>129.03</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1204,31 +1204,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>139.56</v>
+        <v>163.52</v>
       </c>
       <c r="C22">
-        <v>132.89</v>
+        <v>148.63</v>
       </c>
       <c r="D22">
-        <v>83.94</v>
+        <v>82.04000000000001</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>16.33</v>
       </c>
       <c r="F22">
-        <v>89.44</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="G22">
-        <v>96.31999999999999</v>
+        <v>119.66</v>
       </c>
       <c r="H22">
-        <v>101.94</v>
+        <v>106.79</v>
       </c>
       <c r="I22">
-        <v>31.45</v>
+        <v>34.58</v>
       </c>
       <c r="J22">
-        <v>114.33</v>
+        <v>120.13</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1236,31 +1236,31 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>102.39</v>
+        <v>105.74</v>
       </c>
       <c r="C23">
-        <v>169.49</v>
+        <v>179.06</v>
       </c>
       <c r="D23">
-        <v>122.47</v>
+        <v>121.18</v>
       </c>
       <c r="E23">
-        <v>67.02</v>
+        <v>64.23</v>
       </c>
       <c r="F23">
-        <v>55.65</v>
+        <v>80</v>
       </c>
       <c r="G23">
-        <v>54.29</v>
+        <v>58.54</v>
       </c>
       <c r="H23">
-        <v>87.48</v>
+        <v>92.29000000000001</v>
       </c>
       <c r="I23">
-        <v>34.51</v>
+        <v>38.25</v>
       </c>
       <c r="J23">
-        <v>123.86</v>
+        <v>121.95</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1268,31 +1268,31 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>134.67</v>
+        <v>144.81</v>
       </c>
       <c r="C24">
-        <v>134.89</v>
+        <v>158.82</v>
       </c>
       <c r="D24">
-        <v>76.25</v>
+        <v>114.43</v>
       </c>
       <c r="E24">
-        <v>42.42</v>
+        <v>45.53</v>
       </c>
       <c r="F24">
-        <v>83.48</v>
+        <v>115.56</v>
       </c>
       <c r="G24">
-        <v>89.44</v>
+        <v>100</v>
       </c>
       <c r="H24">
-        <v>110.37</v>
+        <v>143.76</v>
       </c>
       <c r="I24">
-        <v>29.83</v>
+        <v>38.51</v>
       </c>
       <c r="J24">
-        <v>92.75</v>
+        <v>118.95</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1300,31 +1300,31 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>92.28</v>
+        <v>89.65000000000001</v>
       </c>
       <c r="C25">
-        <v>129.7</v>
+        <v>126.7</v>
       </c>
       <c r="D25">
-        <v>113.89</v>
+        <v>109.48</v>
       </c>
       <c r="E25">
-        <v>24.59</v>
+        <v>23.57</v>
       </c>
       <c r="F25">
-        <v>65.63</v>
+        <v>69.18000000000001</v>
       </c>
       <c r="G25">
-        <v>67.91</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="H25">
-        <v>110.98</v>
+        <v>108.23</v>
       </c>
       <c r="I25">
-        <v>43.19</v>
+        <v>41.53</v>
       </c>
       <c r="J25">
-        <v>111.26</v>
+        <v>107.66</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1332,31 +1332,31 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>111.07</v>
+        <v>106.45</v>
       </c>
       <c r="C26">
-        <v>128.45</v>
+        <v>123.1</v>
       </c>
       <c r="D26">
-        <v>148.58</v>
+        <v>142.39</v>
       </c>
       <c r="E26">
-        <v>32.18</v>
+        <v>30.84</v>
       </c>
       <c r="F26">
-        <v>108.21</v>
+        <v>103.7</v>
       </c>
       <c r="G26">
-        <v>117.73</v>
+        <v>112.82</v>
       </c>
       <c r="H26">
-        <v>141.59</v>
+        <v>135.69</v>
       </c>
       <c r="I26">
-        <v>36.31</v>
+        <v>34.8</v>
       </c>
       <c r="J26">
-        <v>121.4</v>
+        <v>116.34</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1364,31 +1364,31 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>78.51000000000001</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="C27">
-        <v>211.48</v>
+        <v>213.95</v>
       </c>
       <c r="D27">
-        <v>141.06</v>
+        <v>141.78</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>59.63</v>
+        <v>104.76</v>
       </c>
       <c r="G27">
-        <v>48.88</v>
+        <v>68.47</v>
       </c>
       <c r="H27">
-        <v>54.11</v>
+        <v>61.73</v>
       </c>
       <c r="I27">
-        <v>43.57</v>
+        <v>41.75</v>
       </c>
       <c r="J27">
-        <v>98.08</v>
+        <v>102.73</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1396,31 +1396,31 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>109.44</v>
+        <v>104.88</v>
       </c>
       <c r="C28">
-        <v>109.09</v>
+        <v>104.54</v>
       </c>
       <c r="D28">
-        <v>166.45</v>
+        <v>159.51</v>
       </c>
       <c r="E28">
-        <v>15.3</v>
+        <v>14.67</v>
       </c>
       <c r="F28">
-        <v>39.75</v>
+        <v>38.1</v>
       </c>
       <c r="G28">
-        <v>71.95999999999999</v>
+        <v>68.97</v>
       </c>
       <c r="H28">
-        <v>163.31</v>
+        <v>157.98</v>
       </c>
       <c r="I28">
-        <v>38.53</v>
+        <v>37.72</v>
       </c>
       <c r="J28">
-        <v>127.54</v>
+        <v>123.33</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1428,31 +1428,31 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>144.5</v>
+        <v>138.48</v>
       </c>
       <c r="C29">
-        <v>113.32</v>
+        <v>108.6</v>
       </c>
       <c r="D29">
-        <v>110.48</v>
+        <v>105.88</v>
       </c>
       <c r="E29">
-        <v>36.91</v>
+        <v>35.37</v>
       </c>
       <c r="F29">
-        <v>108.21</v>
+        <v>103.7</v>
       </c>
       <c r="G29">
-        <v>81.98999999999999</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="H29">
-        <v>107.45</v>
+        <v>102.97</v>
       </c>
       <c r="I29">
-        <v>74.42</v>
+        <v>71.31999999999999</v>
       </c>
       <c r="J29">
-        <v>139.13</v>
+        <v>133.33</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1460,31 +1460,31 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>67.81999999999999</v>
+        <v>65</v>
       </c>
       <c r="C30">
-        <v>102.52</v>
+        <v>98.25</v>
       </c>
       <c r="D30">
-        <v>81.5</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="E30">
-        <v>14.42</v>
+        <v>13.82</v>
       </c>
       <c r="F30">
-        <v>55.65</v>
+        <v>53.33</v>
       </c>
       <c r="G30">
-        <v>77.59</v>
+        <v>74.36</v>
       </c>
       <c r="H30">
-        <v>100.3</v>
+        <v>96.12</v>
       </c>
       <c r="I30">
-        <v>36</v>
+        <v>34.5</v>
       </c>
       <c r="J30">
-        <v>109.32</v>
+        <v>104.76</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1492,31 +1492,31 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>85.20999999999999</v>
+        <v>81.66</v>
       </c>
       <c r="C31">
-        <v>87.33</v>
+        <v>83.69</v>
       </c>
       <c r="D31">
-        <v>85</v>
+        <v>79.03</v>
       </c>
       <c r="E31">
-        <v>58.68</v>
+        <v>56.24</v>
       </c>
       <c r="F31">
-        <v>59.63</v>
+        <v>57.14</v>
       </c>
       <c r="G31">
-        <v>67.17</v>
+        <v>64.37</v>
       </c>
       <c r="H31">
-        <v>148.34</v>
+        <v>142.16</v>
       </c>
       <c r="I31">
-        <v>62.86</v>
+        <v>60.24</v>
       </c>
       <c r="J31">
-        <v>88.54000000000001</v>
+        <v>84.84999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1524,31 +1524,31 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>56.19</v>
+        <v>53.85</v>
       </c>
       <c r="C32">
-        <v>82.14</v>
+        <v>78.70999999999999</v>
       </c>
       <c r="D32">
-        <v>96.33</v>
+        <v>92.31</v>
       </c>
       <c r="E32">
-        <v>48.36</v>
+        <v>46.34</v>
       </c>
       <c r="F32">
-        <v>27.83</v>
+        <v>26.67</v>
       </c>
       <c r="G32">
-        <v>39.96</v>
+        <v>38.3</v>
       </c>
       <c r="H32">
-        <v>75.26000000000001</v>
+        <v>72.13</v>
       </c>
       <c r="I32">
-        <v>25.75</v>
+        <v>24.68</v>
       </c>
       <c r="J32">
-        <v>81.27</v>
+        <v>77.89</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1556,31 +1556,31 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>78.12</v>
+        <v>77.97</v>
       </c>
       <c r="C33">
-        <v>93.12</v>
+        <v>94.98</v>
       </c>
       <c r="D33">
-        <v>84.73999999999999</v>
+        <v>85.29000000000001</v>
       </c>
       <c r="E33">
-        <v>21.03</v>
+        <v>19.32</v>
       </c>
       <c r="F33">
-        <v>104.55</v>
+        <v>105.59</v>
       </c>
       <c r="G33">
-        <v>63.24</v>
+        <v>68.38</v>
       </c>
       <c r="H33">
-        <v>81.78</v>
+        <v>80.54000000000001</v>
       </c>
       <c r="I33">
-        <v>41.2</v>
+        <v>41.36</v>
       </c>
       <c r="J33">
-        <v>97.73999999999999</v>
+        <v>97.33</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1588,31 +1588,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>52.38</v>
+        <v>58.77</v>
       </c>
       <c r="C34">
-        <v>58.13</v>
+        <v>63.1</v>
       </c>
       <c r="D34">
-        <v>111.57</v>
+        <v>114.78</v>
       </c>
       <c r="E34">
-        <v>38.18</v>
+        <v>27.64</v>
       </c>
       <c r="F34">
-        <v>55.65</v>
+        <v>66.67</v>
       </c>
       <c r="G34">
-        <v>38.33</v>
+        <v>43.54</v>
       </c>
       <c r="H34">
-        <v>83.95</v>
+        <v>84.23</v>
       </c>
       <c r="I34">
-        <v>36.23</v>
+        <v>34.72</v>
       </c>
       <c r="J34">
-        <v>97.69</v>
+        <v>104.96</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1620,31 +1620,31 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>38.53</v>
+        <v>47.3</v>
       </c>
       <c r="C35">
-        <v>61.84</v>
+        <v>74.06999999999999</v>
       </c>
       <c r="D35">
-        <v>101.2</v>
+        <v>102.56</v>
       </c>
       <c r="E35">
-        <v>14.42</v>
+        <v>13.82</v>
       </c>
       <c r="F35">
-        <v>24.35</v>
+        <v>36.67</v>
       </c>
       <c r="G35">
-        <v>51.01</v>
+        <v>72.59</v>
       </c>
       <c r="H35">
-        <v>65.41</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="I35">
-        <v>32.09</v>
+        <v>35.01</v>
       </c>
       <c r="J35">
-        <v>69.56999999999999</v>
+        <v>86.67</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1652,31 +1652,31 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>89.69</v>
+        <v>85.95</v>
       </c>
       <c r="C36">
-        <v>95.56999999999999</v>
+        <v>91.59</v>
       </c>
       <c r="D36">
-        <v>60.95</v>
+        <v>58.41</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>270.53</v>
+        <v>259.26</v>
       </c>
       <c r="G36">
-        <v>73.91</v>
+        <v>70.83</v>
       </c>
       <c r="H36">
-        <v>67.02</v>
+        <v>64.22</v>
       </c>
       <c r="I36">
-        <v>33.73</v>
+        <v>32.33</v>
       </c>
       <c r="J36">
-        <v>102.52</v>
+        <v>98.25</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1684,31 +1684,31 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>65.93000000000001</v>
+        <v>64.58</v>
       </c>
       <c r="C37">
-        <v>98.52</v>
+        <v>100.72</v>
       </c>
       <c r="D37">
-        <v>90.37</v>
+        <v>91.55</v>
       </c>
       <c r="E37">
-        <v>9.119999999999999</v>
+        <v>8.74</v>
       </c>
       <c r="F37">
-        <v>84.84</v>
+        <v>84.55</v>
       </c>
       <c r="G37">
-        <v>98.55</v>
+        <v>97.22</v>
       </c>
       <c r="H37">
-        <v>74.15000000000001</v>
+        <v>74.33</v>
       </c>
       <c r="I37">
-        <v>40.91</v>
+        <v>39.5</v>
       </c>
       <c r="J37">
-        <v>107.51</v>
+        <v>103.03</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1716,31 +1716,31 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>36.51</v>
+        <v>35.62</v>
       </c>
       <c r="C38">
-        <v>87.09999999999999</v>
+        <v>90.06999999999999</v>
       </c>
       <c r="D38">
-        <v>83.13</v>
+        <v>82.79000000000001</v>
       </c>
       <c r="E38">
-        <v>14.46</v>
+        <v>13.85</v>
       </c>
       <c r="F38">
-        <v>132.17</v>
+        <v>126.67</v>
       </c>
       <c r="G38">
-        <v>67.31999999999999</v>
+        <v>64.52</v>
       </c>
       <c r="H38">
-        <v>100.62</v>
+        <v>97.92</v>
       </c>
       <c r="I38">
-        <v>43.51</v>
+        <v>46</v>
       </c>
       <c r="J38">
-        <v>95.29000000000001</v>
+        <v>91.31999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1748,31 +1748,31 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>62.35</v>
+        <v>59.75</v>
       </c>
       <c r="C39">
-        <v>146.28</v>
+        <v>140.18</v>
       </c>
       <c r="D39">
-        <v>62.43</v>
+        <v>59.82</v>
       </c>
       <c r="E39">
-        <v>18.66</v>
+        <v>17.89</v>
       </c>
       <c r="F39">
-        <v>188.82</v>
+        <v>180.95</v>
       </c>
       <c r="G39">
-        <v>84.47</v>
+        <v>80.95</v>
       </c>
       <c r="H39">
-        <v>70.92</v>
+        <v>66.34</v>
       </c>
       <c r="I39">
-        <v>37.2</v>
+        <v>35.65</v>
       </c>
       <c r="J39">
-        <v>85.02</v>
+        <v>81.48</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1780,31 +1780,31 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>114.67</v>
+        <v>114.1</v>
       </c>
       <c r="C40">
-        <v>123.25</v>
+        <v>123.55</v>
       </c>
       <c r="D40">
-        <v>76.39</v>
+        <v>80.38</v>
       </c>
       <c r="E40">
-        <v>59.52</v>
+        <v>57.04</v>
       </c>
       <c r="F40">
-        <v>86.95999999999999</v>
+        <v>91.67</v>
       </c>
       <c r="G40">
-        <v>80.66</v>
+        <v>83.09</v>
       </c>
       <c r="H40">
-        <v>83.84</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="I40">
-        <v>61.28</v>
+        <v>61.4</v>
       </c>
       <c r="J40">
-        <v>83.16</v>
+        <v>84.29000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1812,31 +1812,31 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>275.31</v>
+        <v>267.8</v>
       </c>
       <c r="C41">
-        <v>106.48</v>
+        <v>103.22</v>
       </c>
       <c r="D41">
-        <v>118.8</v>
+        <v>116.77</v>
       </c>
       <c r="E41">
-        <v>29.98</v>
+        <v>28.73</v>
       </c>
       <c r="F41">
-        <v>109.32</v>
+        <v>104.76</v>
       </c>
       <c r="G41">
-        <v>50.59</v>
+        <v>48.48</v>
       </c>
       <c r="H41">
-        <v>104.84</v>
+        <v>103.31</v>
       </c>
       <c r="I41">
-        <v>34.86</v>
+        <v>35.75</v>
       </c>
       <c r="J41">
-        <v>145.05</v>
+        <v>139.01</v>
       </c>
     </row>
   </sheetData>

--- a/Data/SalesTrend/SalesTrend_CCF.xlsx
+++ b/Data/SalesTrend/SalesTrend_CCF.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>FFTR</t>
   </si>
@@ -44,6 +44,129 @@
   </si>
   <si>
     <t>NOCLOG</t>
+  </si>
+  <si>
+    <t>CCF</t>
+  </si>
+  <si>
+    <t>CCF10</t>
+  </si>
+  <si>
+    <t>CCF11</t>
+  </si>
+  <si>
+    <t>CCF12</t>
+  </si>
+  <si>
+    <t>CCF13</t>
+  </si>
+  <si>
+    <t>CCF14</t>
+  </si>
+  <si>
+    <t>CCF15</t>
+  </si>
+  <si>
+    <t>CCF16</t>
+  </si>
+  <si>
+    <t>CCF17</t>
+  </si>
+  <si>
+    <t>CCF20</t>
+  </si>
+  <si>
+    <t>CCF21</t>
+  </si>
+  <si>
+    <t>CCF22</t>
+  </si>
+  <si>
+    <t>CCF23</t>
+  </si>
+  <si>
+    <t>CCF24</t>
+  </si>
+  <si>
+    <t>CCF25</t>
+  </si>
+  <si>
+    <t>CCF26</t>
+  </si>
+  <si>
+    <t>CCF30</t>
+  </si>
+  <si>
+    <t>CCF31</t>
+  </si>
+  <si>
+    <t>CCF32</t>
+  </si>
+  <si>
+    <t>CCF33</t>
+  </si>
+  <si>
+    <t>CCF34</t>
+  </si>
+  <si>
+    <t>CCF35</t>
+  </si>
+  <si>
+    <t>CCF40</t>
+  </si>
+  <si>
+    <t>CCF41</t>
+  </si>
+  <si>
+    <t>CCF42</t>
+  </si>
+  <si>
+    <t>CCF43</t>
+  </si>
+  <si>
+    <t>CCF44</t>
+  </si>
+  <si>
+    <t>CCF45</t>
+  </si>
+  <si>
+    <t>CCF46</t>
+  </si>
+  <si>
+    <t>CCF47</t>
+  </si>
+  <si>
+    <t>CCF50</t>
+  </si>
+  <si>
+    <t>CCF51</t>
+  </si>
+  <si>
+    <t>CCF52</t>
+  </si>
+  <si>
+    <t>CCF53</t>
+  </si>
+  <si>
+    <t>CCF54</t>
+  </si>
+  <si>
+    <t>CCF55</t>
+  </si>
+  <si>
+    <t>CCF60</t>
+  </si>
+  <si>
+    <t>CCF61</t>
+  </si>
+  <si>
+    <t>CCF62</t>
+  </si>
+  <si>
+    <t>CCF63</t>
+  </si>
+  <si>
+    <t>CCF64</t>
   </si>
 </sst>
 </file>
@@ -401,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -439,6 +562,1318 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>57.84</v>
+      </c>
+      <c r="C2">
+        <v>53.41</v>
+      </c>
+      <c r="D2">
+        <v>52.82</v>
+      </c>
+      <c r="E2">
+        <v>3.96</v>
+      </c>
+      <c r="F2">
+        <v>70.78</v>
+      </c>
+      <c r="G2">
+        <v>30.78</v>
+      </c>
+      <c r="H2">
+        <v>58.53</v>
+      </c>
+      <c r="I2">
+        <v>30.37</v>
+      </c>
+      <c r="J2">
+        <v>56.21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>49.91</v>
+      </c>
+      <c r="C3">
+        <v>64.11</v>
+      </c>
+      <c r="D3">
+        <v>51.62</v>
+      </c>
+      <c r="E3">
+        <v>7.86</v>
+      </c>
+      <c r="F3">
+        <v>103.33</v>
+      </c>
+      <c r="G3">
+        <v>49.36</v>
+      </c>
+      <c r="H3">
+        <v>47.87</v>
+      </c>
+      <c r="I3">
+        <v>14.44</v>
+      </c>
+      <c r="J3">
+        <v>55.89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>33.61</v>
+      </c>
+      <c r="C4">
+        <v>53.26</v>
+      </c>
+      <c r="D4">
+        <v>61.1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>114.81</v>
+      </c>
+      <c r="H4">
+        <v>61.88</v>
+      </c>
+      <c r="I4">
+        <v>3.58</v>
+      </c>
+      <c r="J4">
+        <v>62.63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>109.54</v>
+      </c>
+      <c r="C5">
+        <v>165.44</v>
+      </c>
+      <c r="D5">
+        <v>42.21</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>114.81</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>43.01</v>
+      </c>
+      <c r="I5">
+        <v>9.74</v>
+      </c>
+      <c r="J5">
+        <v>62.36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>52.12</v>
+      </c>
+      <c r="C6">
+        <v>39.46</v>
+      </c>
+      <c r="D6">
+        <v>82.44</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>86.11</v>
+      </c>
+      <c r="G6">
+        <v>51.67</v>
+      </c>
+      <c r="H6">
+        <v>27.19</v>
+      </c>
+      <c r="I6">
+        <v>29.63</v>
+      </c>
+      <c r="J6">
+        <v>28.18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>19.08</v>
+      </c>
+      <c r="C7">
+        <v>10.79</v>
+      </c>
+      <c r="D7">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>51.67</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>18.49</v>
+      </c>
+      <c r="I7">
+        <v>28.78</v>
+      </c>
+      <c r="J7">
+        <v>79.48999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>79.76000000000001</v>
+      </c>
+      <c r="C8">
+        <v>95.23999999999999</v>
+      </c>
+      <c r="D8">
+        <v>86.67</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>68.89</v>
+      </c>
+      <c r="G8">
+        <v>58.49</v>
+      </c>
+      <c r="H8">
+        <v>53.15</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>52.42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>27.11</v>
+      </c>
+      <c r="C9">
+        <v>45.08</v>
+      </c>
+      <c r="D9">
+        <v>21.37</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>103.33</v>
+      </c>
+      <c r="G9">
+        <v>35.63</v>
+      </c>
+      <c r="H9">
+        <v>80.20999999999999</v>
+      </c>
+      <c r="I9">
+        <v>35.57</v>
+      </c>
+      <c r="J9">
+        <v>73.81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>7.82</v>
+      </c>
+      <c r="C10">
+        <v>33.75</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>344.44</v>
+      </c>
+      <c r="G10">
+        <v>39.74</v>
+      </c>
+      <c r="H10">
+        <v>40.56</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>47.84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>51</v>
+      </c>
+      <c r="C11">
+        <v>48.91</v>
+      </c>
+      <c r="D11">
+        <v>47.91</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>17.37</v>
+      </c>
+      <c r="G11">
+        <v>29.52</v>
+      </c>
+      <c r="H11">
+        <v>47.65</v>
+      </c>
+      <c r="I11">
+        <v>30.58</v>
+      </c>
+      <c r="J11">
+        <v>54.96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>79</v>
+      </c>
+      <c r="C12">
+        <v>74.67</v>
+      </c>
+      <c r="D12">
+        <v>61.57</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>57.41</v>
+      </c>
+      <c r="H12">
+        <v>84.23999999999999</v>
+      </c>
+      <c r="I12">
+        <v>53.95</v>
+      </c>
+      <c r="J12">
+        <v>83.14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="C13">
+        <v>100.73</v>
+      </c>
+      <c r="D13">
+        <v>43.76</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>20.46</v>
+      </c>
+      <c r="H13">
+        <v>43.97</v>
+      </c>
+      <c r="I13">
+        <v>38.56</v>
+      </c>
+      <c r="J13">
+        <v>62.63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>35.23</v>
+      </c>
+      <c r="C14">
+        <v>23.11</v>
+      </c>
+      <c r="D14">
+        <v>41.33</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>53.41</v>
+      </c>
+      <c r="I14">
+        <v>7.62</v>
+      </c>
+      <c r="J14">
+        <v>51.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>32.13</v>
+      </c>
+      <c r="C15">
+        <v>41.72</v>
+      </c>
+      <c r="D15">
+        <v>60.33</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>103.33</v>
+      </c>
+      <c r="G15">
+        <v>62.63</v>
+      </c>
+      <c r="H15">
+        <v>33.19</v>
+      </c>
+      <c r="I15">
+        <v>28.46</v>
+      </c>
+      <c r="J15">
+        <v>32.29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>52.45</v>
+      </c>
+      <c r="C16">
+        <v>19.14</v>
+      </c>
+      <c r="D16">
+        <v>39.44</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>86.11</v>
+      </c>
+      <c r="G16">
+        <v>66.67</v>
+      </c>
+      <c r="H16">
+        <v>30.28</v>
+      </c>
+      <c r="I16">
+        <v>22.86</v>
+      </c>
+      <c r="J16">
+        <v>84.93000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>39.69</v>
+      </c>
+      <c r="C17">
+        <v>9.48</v>
+      </c>
+      <c r="D17">
+        <v>39.02</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>23.75</v>
+      </c>
+      <c r="I17">
+        <v>26.73</v>
+      </c>
+      <c r="J17">
+        <v>16.15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>72.45999999999999</v>
+      </c>
+      <c r="C18">
+        <v>51.11</v>
+      </c>
+      <c r="D18">
+        <v>38.87</v>
+      </c>
+      <c r="E18">
+        <v>7.75</v>
+      </c>
+      <c r="F18">
+        <v>44.29</v>
+      </c>
+      <c r="G18">
+        <v>31.59</v>
+      </c>
+      <c r="H18">
+        <v>68.01000000000001</v>
+      </c>
+      <c r="I18">
+        <v>33.33</v>
+      </c>
+      <c r="J18">
+        <v>58.64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>46.27</v>
+      </c>
+      <c r="C19">
+        <v>48.48</v>
+      </c>
+      <c r="D19">
+        <v>10.33</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>32.29</v>
+      </c>
+      <c r="H19">
+        <v>59.02</v>
+      </c>
+      <c r="I19">
+        <v>30.03</v>
+      </c>
+      <c r="J19">
+        <v>50.41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>126.66</v>
+      </c>
+      <c r="C20">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="D20">
+        <v>73.78</v>
+      </c>
+      <c r="E20">
+        <v>30.1</v>
+      </c>
+      <c r="F20">
+        <v>103.33</v>
+      </c>
+      <c r="G20">
+        <v>30.39</v>
+      </c>
+      <c r="H20">
+        <v>89.78</v>
+      </c>
+      <c r="I20">
+        <v>64.34</v>
+      </c>
+      <c r="J20">
+        <v>95.52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>31.64</v>
+      </c>
+      <c r="C21">
+        <v>54.52</v>
+      </c>
+      <c r="D21">
+        <v>84.38</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>103.33</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>11.02</v>
+      </c>
+      <c r="I21">
+        <v>30.78</v>
+      </c>
+      <c r="J21">
+        <v>82.01000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>97.45</v>
+      </c>
+      <c r="C22">
+        <v>58.68</v>
+      </c>
+      <c r="D22">
+        <v>37.93</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>68.89</v>
+      </c>
+      <c r="G22">
+        <v>58.49</v>
+      </c>
+      <c r="H22">
+        <v>83.13</v>
+      </c>
+      <c r="I22">
+        <v>35.13</v>
+      </c>
+      <c r="J22">
+        <v>51.16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>61.75</v>
+      </c>
+      <c r="C23">
+        <v>7.09</v>
+      </c>
+      <c r="D23">
+        <v>14.2</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>22.46</v>
+      </c>
+      <c r="H23">
+        <v>61.61</v>
+      </c>
+      <c r="I23">
+        <v>9.69</v>
+      </c>
+      <c r="J23">
+        <v>19.68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>72.08</v>
+      </c>
+      <c r="C24">
+        <v>50.5</v>
+      </c>
+      <c r="D24">
+        <v>61.48</v>
+      </c>
+      <c r="E24">
+        <v>7.38</v>
+      </c>
+      <c r="F24">
+        <v>68.89</v>
+      </c>
+      <c r="G24">
+        <v>29.99</v>
+      </c>
+      <c r="H24">
+        <v>65.31999999999999</v>
+      </c>
+      <c r="I24">
+        <v>47.68</v>
+      </c>
+      <c r="J24">
+        <v>81.92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>22.38</v>
+      </c>
+      <c r="C25">
+        <v>26.44</v>
+      </c>
+      <c r="D25">
+        <v>74.31</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>15.42</v>
+      </c>
+      <c r="H25">
+        <v>17.26</v>
+      </c>
+      <c r="I25">
+        <v>34.47</v>
+      </c>
+      <c r="J25">
+        <v>41.67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>54.89</v>
+      </c>
+      <c r="C26">
+        <v>78.76000000000001</v>
+      </c>
+      <c r="D26">
+        <v>58.25</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>73.81</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>58.17</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>77.02</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>84.89</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>32.29</v>
+      </c>
+      <c r="H27">
+        <v>122.01</v>
+      </c>
+      <c r="I27">
+        <v>60.38</v>
+      </c>
+      <c r="J27">
+        <v>112.32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>143.1</v>
+      </c>
+      <c r="C28">
+        <v>117.42</v>
+      </c>
+      <c r="D28">
+        <v>113.78</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>295.24</v>
+      </c>
+      <c r="G28">
+        <v>67.76000000000001</v>
+      </c>
+      <c r="H28">
+        <v>110.51</v>
+      </c>
+      <c r="I28">
+        <v>80.92</v>
+      </c>
+      <c r="J28">
+        <v>151.22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>69.47</v>
+      </c>
+      <c r="C29">
+        <v>83.02</v>
+      </c>
+      <c r="D29">
+        <v>43.49</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>50.82</v>
+      </c>
+      <c r="H29">
+        <v>58.64</v>
+      </c>
+      <c r="I29">
+        <v>54.99</v>
+      </c>
+      <c r="J29">
+        <v>98.41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>137.17</v>
+      </c>
+      <c r="C30">
+        <v>45.72</v>
+      </c>
+      <c r="D30">
+        <v>83.25</v>
+      </c>
+      <c r="E30">
+        <v>63.92</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>24.6</v>
+      </c>
+      <c r="H30">
+        <v>73.81</v>
+      </c>
+      <c r="I30">
+        <v>52.43</v>
+      </c>
+      <c r="J30">
+        <v>93.94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>22.78</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>13.46</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>114.81</v>
+      </c>
+      <c r="G31">
+        <v>14.16</v>
+      </c>
+      <c r="H31">
+        <v>78.06</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>45.42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>21.79</v>
+      </c>
+      <c r="C32">
+        <v>18.56</v>
+      </c>
+      <c r="D32">
+        <v>25.74</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>104.13</v>
+      </c>
+      <c r="G32">
+        <v>17.94</v>
+      </c>
+      <c r="H32">
+        <v>42.21</v>
+      </c>
+      <c r="I32">
+        <v>36.97</v>
+      </c>
+      <c r="J32">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>30.89</v>
+      </c>
+      <c r="C33">
+        <v>7.65</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>103.33</v>
+      </c>
+      <c r="G33">
+        <v>12.16</v>
+      </c>
+      <c r="H33">
+        <v>52.25</v>
+      </c>
+      <c r="I33">
+        <v>10.45</v>
+      </c>
+      <c r="J33">
+        <v>17.82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>12.67</v>
+      </c>
+      <c r="C34">
+        <v>65.87</v>
+      </c>
+      <c r="D34">
+        <v>18.57</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>27.19</v>
+      </c>
+      <c r="G34">
+        <v>10.76</v>
+      </c>
+      <c r="H34">
+        <v>34.6</v>
+      </c>
+      <c r="I34">
+        <v>3.64</v>
+      </c>
+      <c r="J34">
+        <v>27.19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>20.57</v>
+      </c>
+      <c r="C35">
+        <v>22.22</v>
+      </c>
+      <c r="D35">
+        <v>32.66</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>315.74</v>
+      </c>
+      <c r="G35">
+        <v>73.81</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>45.37</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>17.44</v>
+      </c>
+      <c r="C36">
+        <v>7.44</v>
+      </c>
+      <c r="D36">
+        <v>76.38</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>32.57</v>
+      </c>
+      <c r="I36">
+        <v>87.05</v>
+      </c>
+      <c r="J36">
+        <v>133.95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>28.21</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>106.16</v>
+      </c>
+      <c r="I37">
+        <v>52.96</v>
+      </c>
+      <c r="J37">
+        <v>50.41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>103.55</v>
+      </c>
+      <c r="C38">
+        <v>103.22</v>
+      </c>
+      <c r="D38">
+        <v>113.07</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>84.11</v>
+      </c>
+      <c r="G38">
+        <v>27.66</v>
+      </c>
+      <c r="H38">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="I38">
+        <v>25.78</v>
+      </c>
+      <c r="J38">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>210.65</v>
+      </c>
+      <c r="C39">
+        <v>274.38</v>
+      </c>
+      <c r="D39">
+        <v>221.88</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>344.44</v>
+      </c>
+      <c r="G39">
+        <v>51.67</v>
+      </c>
+      <c r="H39">
+        <v>120.84</v>
+      </c>
+      <c r="I39">
+        <v>8.83</v>
+      </c>
+      <c r="J39">
+        <v>41.17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>26.57</v>
+      </c>
+      <c r="C40">
+        <v>90.75</v>
+      </c>
+      <c r="D40">
+        <v>93.87</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>13.87</v>
+      </c>
+      <c r="H40">
+        <v>64.23</v>
+      </c>
+      <c r="I40">
+        <v>23.88</v>
+      </c>
+      <c r="J40">
+        <v>13.78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>131</v>
+      </c>
+      <c r="C41">
+        <v>27.41</v>
+      </c>
+      <c r="D41">
+        <v>74.06999999999999</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>25.2</v>
+      </c>
+      <c r="H41">
+        <v>66.62</v>
+      </c>
+      <c r="I41">
+        <v>67.76000000000001</v>
+      </c>
+      <c r="J41">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>49.04</v>
+      </c>
+      <c r="C42">
+        <v>20.95</v>
+      </c>
+      <c r="D42">
+        <v>64.38</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>11.36</v>
+      </c>
+      <c r="H42">
+        <v>55.24</v>
+      </c>
+      <c r="I42">
+        <v>7.99</v>
+      </c>
+      <c r="J42">
+        <v>27.68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
